--- a/LeadtoOpportunityConversion.xlsx
+++ b/LeadtoOpportunityConversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Documents\GitHub\Ram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84B04A6-D66B-488A-96E4-A8F99CAAD7AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC288F0-EFB8-4847-8308-D42461C508EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,13 +397,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J26" totalsRowShown="0">
-  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -783,7 +777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -797,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -811,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -825,7 +819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -839,7 +833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -876,7 +870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -887,7 +881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -898,7 +892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>43</v>
       </c>
@@ -912,7 +906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>46</v>
       </c>
@@ -926,7 +920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>49</v>
       </c>
@@ -940,7 +934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -954,7 +948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>56</v>
       </c>
@@ -968,7 +962,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>60</v>
       </c>
@@ -982,7 +976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>64</v>
       </c>
@@ -996,7 +990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>68</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>72</v>
       </c>
@@ -1024,7 +1018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>76</v>
       </c>
@@ -1038,7 +1032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>80</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>84</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>88</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>92</v>
       </c>
@@ -1094,7 +1088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>96</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>100</v>
       </c>
